--- a/Results_2018.xlsx
+++ b/Results_2018.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="702">
   <si>
     <t>First Name:</t>
   </si>
@@ -2478,7 +2478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I178"/>
+  <dimension ref="A1:I177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2921,28 +2921,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D16" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E16" t="s">
         <v>493</v>
       </c>
       <c r="F16" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G16" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="H16" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="I16" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2950,28 +2950,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>175</v>
       </c>
       <c r="D17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E17" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F17" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G17" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="H17" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="I17" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2979,28 +2979,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D18" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E18" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F18" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G18" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="H18" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="I18" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3008,25 +3008,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E19" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F19" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G19" t="s">
         <v>672</v>
       </c>
       <c r="H19" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I19" t="s">
         <v>691</v>
@@ -3037,28 +3037,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D20" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E20" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F20" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G20" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="H20" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="I20" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3066,28 +3066,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D21" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E21" t="s">
         <v>493</v>
       </c>
       <c r="F21" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G21" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="H21" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="I21" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3095,28 +3095,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D22" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E22" t="s">
         <v>493</v>
       </c>
       <c r="F22" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G22" t="s">
         <v>677</v>
       </c>
       <c r="H22" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="I22" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3124,28 +3124,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D23" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E23" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F23" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H23" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I23" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3153,28 +3153,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D24" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E24" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F24" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G24" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H24" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I24" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3182,28 +3182,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D25" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E25" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F25" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G25" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="H25" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
       <c r="I25" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3211,28 +3211,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D26" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E26" t="s">
         <v>493</v>
       </c>
       <c r="F26" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G26" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H26" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I26" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3240,25 +3240,25 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D27" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E27" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F27" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G27" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H27" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="I27" t="s">
         <v>691</v>
@@ -3269,25 +3269,25 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D28" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E28" t="s">
         <v>495</v>
       </c>
       <c r="F28" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G28" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="H28" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="I28" t="s">
         <v>691</v>
@@ -3298,28 +3298,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D29" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E29" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F29" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G29" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="H29" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="I29" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -3327,28 +3327,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D30" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E30" t="s">
         <v>496</v>
       </c>
       <c r="F30" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G30" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="H30" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="I30" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -3356,28 +3356,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D31" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E31" t="s">
         <v>496</v>
       </c>
       <c r="F31" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G31" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="H31" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="I31" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -3385,28 +3385,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D32" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E32" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F32" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G32" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="H32" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="I32" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -3414,28 +3414,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D33" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E33" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F33" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G33" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="H33" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="I33" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -3443,25 +3443,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="D34" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="E34" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F34" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="G34" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="H34" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="I34" t="s">
         <v>692</v>
@@ -3472,28 +3472,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="D35" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="E35" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F35" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
       <c r="G35" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="H35" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="I35" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -3501,28 +3501,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D36" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E36" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F36" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G36" t="s">
         <v>676</v>
       </c>
       <c r="H36" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="I36" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -3530,28 +3530,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D37" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="E37" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F37" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G37" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H37" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="I37" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -3559,28 +3559,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="D38" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="E38" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F38" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G38" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="H38" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="I38" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -3588,28 +3588,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D39" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E39" t="s">
         <v>496</v>
       </c>
       <c r="F39" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G39" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="H39" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="I39" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -3617,28 +3617,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D40" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E40" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F40" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G40" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="H40" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="I40" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -3646,28 +3646,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D41" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E41" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F41" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G41" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H41" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="I41" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -3675,25 +3675,25 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D42" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E42" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F42" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G42" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="H42" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="I42" t="s">
         <v>692</v>
@@ -3704,25 +3704,25 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D43" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E43" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F43" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G43" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="H43" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I43" t="s">
         <v>692</v>
@@ -3733,28 +3733,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D44" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E44" t="s">
         <v>496</v>
       </c>
       <c r="F44" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G44" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="H44" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="I44" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -3762,28 +3762,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D45" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E45" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F45" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G45" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H45" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I45" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3791,28 +3791,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D46" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E46" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F46" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G46" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H46" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="I46" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -3820,28 +3820,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D47" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E47" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F47" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G47" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H47" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="I47" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3849,28 +3849,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D48" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E48" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F48" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G48" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="H48" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="I48" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3878,28 +3878,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D49" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E49" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F49" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G49" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="H49" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="I49" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3907,28 +3907,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D50" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E50" t="s">
         <v>496</v>
       </c>
       <c r="F50" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G50" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="H50" t="s">
         <v>685</v>
       </c>
       <c r="I50" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3936,19 +3936,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D51" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E51" t="s">
         <v>496</v>
       </c>
       <c r="F51" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G51" t="s">
         <v>682</v>
@@ -3965,25 +3965,25 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D52" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E52" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F52" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G52" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="H52" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="I52" t="s">
         <v>691</v>
@@ -3994,28 +3994,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D53" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E53" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F53" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G53" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="H53" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="I53" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -4023,28 +4023,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E54" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F54" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G54" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="H54" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="I54" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4052,28 +4052,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D55" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E55" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F55" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G55" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="H55" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="I55" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -4081,28 +4081,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D56" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E56" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F56" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G56" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H56" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="I56" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -4110,28 +4110,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D57" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E57" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F57" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G57" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="H57" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="I57" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -4139,28 +4139,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D58" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E58" t="s">
         <v>496</v>
       </c>
       <c r="F58" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G58" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="H58" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="I58" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -4168,28 +4168,28 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D59" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E59" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F59" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G59" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H59" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I59" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -4197,28 +4197,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D60" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E60" t="s">
         <v>493</v>
       </c>
       <c r="F60" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G60" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="H60" t="s">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="I60" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -4226,25 +4226,25 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="D61" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E61" t="s">
         <v>493</v>
       </c>
       <c r="F61" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G61" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="H61" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="I61" t="s">
         <v>691</v>
@@ -4255,22 +4255,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="D62" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E62" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F62" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G62" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="H62" t="s">
         <v>677</v>
@@ -4284,28 +4284,28 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D63" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E63" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="F63" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G63" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H63" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="I63" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -4313,28 +4313,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D64" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E64" t="s">
         <v>497</v>
       </c>
       <c r="F64" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G64" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="H64" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="I64" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -4342,28 +4342,28 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D65" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E65" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F65" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G65" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="H65" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="I65" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -4371,25 +4371,25 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D66" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E66" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F66" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G66" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="H66" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="I66" t="s">
         <v>692</v>
@@ -4400,28 +4400,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D67" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E67" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F67" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G67" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="H67" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="I67" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -4429,28 +4429,28 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D68" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E68" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F68" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G68" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H68" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="I68" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -4458,28 +4458,28 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D69" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E69" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F69" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G69" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="H69" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I69" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -4487,28 +4487,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D70" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E70" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F70" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G70" t="s">
-        <v>672</v>
+        <v>686</v>
       </c>
       <c r="H70" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I70" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -4516,28 +4516,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="D71" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E71" t="s">
         <v>496</v>
       </c>
       <c r="F71" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G71" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="H71" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="I71" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -4545,28 +4545,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="D72" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E72" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F72" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G72" t="s">
+        <v>678</v>
+      </c>
+      <c r="H72" t="s">
         <v>679</v>
       </c>
-      <c r="H72" t="s">
-        <v>687</v>
-      </c>
       <c r="I72" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -4574,28 +4574,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="D73" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E73" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F73" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G73" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="H73" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="I73" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -4603,28 +4603,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D74" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E74" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F74" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G74" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="H74" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="I74" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -4632,25 +4632,25 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="D75" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E75" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F75" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G75" t="s">
         <v>683</v>
       </c>
       <c r="H75" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="I75" t="s">
         <v>690</v>
@@ -4661,28 +4661,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="D76" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E76" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F76" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="G76" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H76" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="I76" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -4690,28 +4690,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D77" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E77" t="s">
         <v>496</v>
       </c>
       <c r="F77" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G77" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H77" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="I77" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -4719,28 +4719,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D78" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E78" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F78" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G78" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="H78" t="s">
         <v>683</v>
       </c>
       <c r="I78" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -4748,28 +4748,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D79" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E79" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F79" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G79" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H79" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="I79" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -4777,28 +4777,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E80" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F80" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G80" t="s">
+        <v>676</v>
+      </c>
+      <c r="H80" t="s">
         <v>684</v>
       </c>
-      <c r="H80" t="s">
-        <v>678</v>
-      </c>
       <c r="I80" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -4806,28 +4806,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D81" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E81" t="s">
         <v>496</v>
       </c>
       <c r="F81" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G81" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="H81" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I81" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -4838,25 +4838,25 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E82" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F82" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G82" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H82" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="I82" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -4864,25 +4864,25 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D83" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E83" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F83" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G83" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H83" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="I83" t="s">
         <v>691</v>
@@ -4893,28 +4893,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D84" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E84" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F84" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G84" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="H84" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="I84" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -4922,28 +4922,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D85" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E85" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F85" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G85" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H85" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="I85" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -4951,25 +4951,25 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D86" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E86" t="s">
         <v>495</v>
       </c>
       <c r="F86" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G86" t="s">
         <v>681</v>
       </c>
       <c r="H86" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="I86" t="s">
         <v>690</v>
@@ -4980,28 +4980,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D87" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E87" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F87" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G87" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="H87" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="I87" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -5009,28 +5009,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D88" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E88" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F88" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="G88" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="H88" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="I88" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -5038,28 +5038,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C89" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D89" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E89" t="s">
         <v>496</v>
       </c>
       <c r="F89" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G89" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="H89" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="I89" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -5067,28 +5067,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C90" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D90" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E90" t="s">
         <v>496</v>
       </c>
       <c r="F90" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G90" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H90" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="I90" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -5096,25 +5096,25 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C91" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D91" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E91" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F91" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G91" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="H91" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="I91" t="s">
         <v>692</v>
@@ -5125,28 +5125,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C92" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D92" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E92" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F92" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G92" t="s">
+        <v>680</v>
+      </c>
+      <c r="H92" t="s">
         <v>674</v>
       </c>
-      <c r="H92" t="s">
-        <v>683</v>
-      </c>
       <c r="I92" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -5154,28 +5154,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C93" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D93" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E93" t="s">
         <v>493</v>
       </c>
       <c r="F93" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G93" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H93" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="I93" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -5183,28 +5183,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D94" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E94" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F94" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G94" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H94" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="I94" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -5212,28 +5212,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D95" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E95" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F95" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G95" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H95" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="I95" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -5241,28 +5241,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D96" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E96" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F96" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G96" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="H96" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="I96" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -5270,28 +5270,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D97" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E97" t="s">
         <v>496</v>
       </c>
       <c r="F97" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G97" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="H97" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="I97" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -5299,28 +5299,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D98" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E98" t="s">
         <v>496</v>
       </c>
       <c r="F98" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G98" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H98" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="I98" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -5328,28 +5328,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D99" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E99" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F99" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G99" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H99" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I99" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -5357,28 +5357,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D100" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E100" t="s">
         <v>493</v>
       </c>
       <c r="F100" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G100" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="H100" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="I100" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -5386,28 +5386,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D101" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E101" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F101" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G101" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="H101" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="I101" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -5415,28 +5415,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D102" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E102" t="s">
         <v>495</v>
       </c>
       <c r="F102" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="G102" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="H102" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I102" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -5444,28 +5444,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D103" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E103" t="s">
         <v>495</v>
       </c>
       <c r="F103" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G103" t="s">
         <v>680</v>
       </c>
       <c r="H103" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="I103" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -5473,25 +5473,25 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D104" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E104" t="s">
         <v>495</v>
       </c>
       <c r="F104" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G104" t="s">
+        <v>687</v>
+      </c>
+      <c r="H104" t="s">
         <v>680</v>
-      </c>
-      <c r="H104" t="s">
-        <v>681</v>
       </c>
       <c r="I104" t="s">
         <v>692</v>
@@ -5502,28 +5502,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D105" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E105" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F105" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G105" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H105" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="I105" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -5531,28 +5531,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D106" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E106" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F106" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="G106" t="s">
+        <v>685</v>
+      </c>
+      <c r="H106" t="s">
         <v>688</v>
       </c>
-      <c r="H106" t="s">
-        <v>673</v>
-      </c>
       <c r="I106" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -5560,28 +5560,28 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C107" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D107" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E107" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F107" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G107" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="H107" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="I107" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -5589,25 +5589,25 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C108" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D108" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E108" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F108" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G108" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="H108" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
       <c r="I108" t="s">
         <v>691</v>
@@ -5618,25 +5618,25 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C109" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D109" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E109" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F109" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G109" t="s">
+        <v>688</v>
+      </c>
+      <c r="H109" t="s">
         <v>684</v>
-      </c>
-      <c r="H109" t="s">
-        <v>687</v>
       </c>
       <c r="I109" t="s">
         <v>691</v>
@@ -5647,22 +5647,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C110" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D110" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E110" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F110" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="G110" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="H110" t="s">
         <v>684</v>
@@ -5676,25 +5676,25 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C111" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D111" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E111" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F111" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G111" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="H111" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="I111" t="s">
         <v>691</v>
@@ -5705,25 +5705,25 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C112" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D112" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E112" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F112" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G112" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H112" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="I112" t="s">
         <v>691</v>
@@ -5734,25 +5734,25 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C113" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D113" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E113" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F113" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G113" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="H113" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="I113" t="s">
         <v>691</v>
@@ -5763,28 +5763,28 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C114" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D114" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E114" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F114" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G114" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="H114" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="I114" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -5792,28 +5792,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C115" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D115" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E115" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F115" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G115" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H115" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="I115" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -5821,22 +5821,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C116" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D116" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E116" t="s">
         <v>493</v>
       </c>
       <c r="F116" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G116" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="H116" t="s">
         <v>688</v>
@@ -5850,28 +5850,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C117" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D117" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E117" t="s">
         <v>493</v>
       </c>
       <c r="F117" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G117" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H117" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="I117" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -5879,28 +5879,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C118" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D118" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E118" t="s">
         <v>493</v>
       </c>
       <c r="F118" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G118" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="H118" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="I118" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -5908,28 +5908,28 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C119" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D119" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E119" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F119" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G119" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H119" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
       <c r="I119" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -5937,28 +5937,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C120" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D120" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E120" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F120" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G120" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="H120" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="I120" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -5966,28 +5966,28 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C121" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D121" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E121" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F121" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G121" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="H121" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="I121" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -5995,19 +5995,19 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C122" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D122" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E122" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F122" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G122" t="s">
         <v>689</v>
@@ -6016,7 +6016,7 @@
         <v>689</v>
       </c>
       <c r="I122" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -6024,28 +6024,28 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C123" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D123" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E123" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F123" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G123" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="H123" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="I123" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -6053,19 +6053,19 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C124" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D124" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E124" t="s">
         <v>493</v>
       </c>
       <c r="F124" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G124" t="s">
         <v>689</v>
@@ -6074,7 +6074,7 @@
         <v>689</v>
       </c>
       <c r="I124" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -6082,19 +6082,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C125" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D125" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E125" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F125" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G125" t="s">
         <v>689</v>
@@ -6103,7 +6103,7 @@
         <v>689</v>
       </c>
       <c r="I125" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -6111,28 +6111,28 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C126" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D126" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E126" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F126" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G126" t="s">
-        <v>673</v>
+        <v>689</v>
       </c>
       <c r="H126" t="s">
-        <v>674</v>
+        <v>689</v>
       </c>
       <c r="I126" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -6140,19 +6140,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C127" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D127" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E127" t="s">
         <v>493</v>
       </c>
       <c r="F127" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G127" t="s">
         <v>689</v>
@@ -6169,19 +6169,19 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C128" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D128" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E128" t="s">
         <v>493</v>
       </c>
       <c r="F128" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G128" t="s">
         <v>689</v>
@@ -6198,19 +6198,19 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C129" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D129" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E129" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F129" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G129" t="s">
         <v>689</v>
@@ -6227,19 +6227,19 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C130" t="s">
         <v>279</v>
       </c>
       <c r="D130" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E130" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F130" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G130" t="s">
         <v>689</v>
@@ -6248,7 +6248,7 @@
         <v>689</v>
       </c>
       <c r="I130" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -6256,19 +6256,19 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C131" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D131" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E131" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F131" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G131" t="s">
         <v>689</v>
@@ -6277,7 +6277,7 @@
         <v>689</v>
       </c>
       <c r="I131" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -6285,28 +6285,28 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C132" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="D132" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E132" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F132" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G132" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="H132" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="I132" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -6314,19 +6314,19 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C133" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="D133" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E133" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F133" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G133" t="s">
         <v>689</v>
@@ -6335,7 +6335,7 @@
         <v>689</v>
       </c>
       <c r="I133" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -6343,19 +6343,19 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C134" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D134" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E134" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F134" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G134" t="s">
         <v>689</v>
@@ -6364,7 +6364,7 @@
         <v>689</v>
       </c>
       <c r="I134" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -6372,19 +6372,19 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C135" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D135" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E135" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F135" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G135" t="s">
         <v>689</v>
@@ -6393,7 +6393,7 @@
         <v>689</v>
       </c>
       <c r="I135" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -6401,19 +6401,19 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C136" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D136" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E136" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F136" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G136" t="s">
         <v>689</v>
@@ -6422,7 +6422,7 @@
         <v>689</v>
       </c>
       <c r="I136" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -6430,19 +6430,19 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C137" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D137" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E137" t="s">
         <v>494</v>
       </c>
       <c r="F137" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G137" t="s">
         <v>689</v>
@@ -6451,7 +6451,7 @@
         <v>689</v>
       </c>
       <c r="I137" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -6459,19 +6459,19 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C138" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D138" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E138" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F138" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G138" t="s">
         <v>689</v>
@@ -6488,19 +6488,19 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C139" t="s">
-        <v>286</v>
+        <v>191</v>
       </c>
       <c r="D139" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E139" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F139" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G139" t="s">
         <v>689</v>
@@ -6509,7 +6509,7 @@
         <v>689</v>
       </c>
       <c r="I139" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -6517,19 +6517,19 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C140" t="s">
-        <v>191</v>
+        <v>287</v>
       </c>
       <c r="D140" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E140" t="s">
         <v>495</v>
       </c>
       <c r="F140" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G140" t="s">
         <v>689</v>
@@ -6546,19 +6546,19 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="C141" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D141" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E141" t="s">
         <v>495</v>
       </c>
       <c r="F141" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G141" t="s">
         <v>689</v>
@@ -6575,19 +6575,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="C142" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D142" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E142" t="s">
         <v>495</v>
       </c>
       <c r="F142" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G142" t="s">
         <v>689</v>
@@ -6604,28 +6604,28 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C143" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D143" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E143" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F143" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G143" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="H143" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="I143" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -6633,19 +6633,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C144" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D144" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E144" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F144" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G144" t="s">
         <v>689</v>
@@ -6654,7 +6654,7 @@
         <v>689</v>
       </c>
       <c r="I144" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -6662,28 +6662,28 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="C145" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D145" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E145" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F145" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G145" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="H145" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="I145" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -6691,19 +6691,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C146" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D146" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E146" t="s">
         <v>493</v>
       </c>
       <c r="F146" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="G146" t="s">
         <v>689</v>
@@ -6712,7 +6712,7 @@
         <v>689</v>
       </c>
       <c r="I146" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -6720,19 +6720,19 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="C147" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D147" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E147" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F147" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G147" t="s">
         <v>689</v>
@@ -6749,19 +6749,19 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C148" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D148" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E148" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F148" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G148" t="s">
         <v>689</v>
@@ -6770,7 +6770,7 @@
         <v>689</v>
       </c>
       <c r="I148" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -6778,19 +6778,19 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="C149" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D149" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E149" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F149" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G149" t="s">
         <v>689</v>
@@ -6807,19 +6807,19 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C150" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D150" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E150" t="s">
         <v>495</v>
       </c>
       <c r="F150" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G150" t="s">
         <v>689</v>
@@ -6836,19 +6836,19 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="C151" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D151" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E151" t="s">
         <v>495</v>
       </c>
       <c r="F151" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="G151" t="s">
         <v>689</v>
@@ -6857,7 +6857,7 @@
         <v>689</v>
       </c>
       <c r="I151" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -6865,19 +6865,19 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C152" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="D152" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E152" t="s">
         <v>495</v>
       </c>
       <c r="F152" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G152" t="s">
         <v>689</v>
@@ -6886,7 +6886,7 @@
         <v>689</v>
       </c>
       <c r="I152" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -6894,19 +6894,19 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C153" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="D153" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E153" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F153" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G153" t="s">
         <v>689</v>
@@ -6915,7 +6915,7 @@
         <v>689</v>
       </c>
       <c r="I153" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -6923,19 +6923,19 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C154" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D154" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E154" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F154" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G154" t="s">
         <v>689</v>
@@ -6952,19 +6952,19 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="C155" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D155" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E155" t="s">
         <v>495</v>
       </c>
       <c r="F155" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G155" t="s">
         <v>689</v>
@@ -6973,7 +6973,7 @@
         <v>689</v>
       </c>
       <c r="I155" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -6981,28 +6981,28 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="C156" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D156" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E156" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F156" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G156" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="H156" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="I156" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -7010,19 +7010,19 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C157" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="D157" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E157" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F157" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="G157" t="s">
         <v>689</v>
@@ -7031,7 +7031,7 @@
         <v>689</v>
       </c>
       <c r="I157" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -7039,19 +7039,19 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C158" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="D158" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E158" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F158" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G158" t="s">
         <v>689</v>
@@ -7060,7 +7060,7 @@
         <v>689</v>
       </c>
       <c r="I158" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -7068,19 +7068,19 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C159" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D159" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E159" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F159" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G159" t="s">
         <v>689</v>
@@ -7089,7 +7089,7 @@
         <v>689</v>
       </c>
       <c r="I159" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -7097,28 +7097,28 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C160" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D160" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E160" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F160" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="G160" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="H160" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="I160" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -7126,19 +7126,19 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C161" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D161" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E161" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F161" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="G161" t="s">
         <v>689</v>
@@ -7155,19 +7155,19 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C162" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D162" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E162" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F162" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G162" t="s">
         <v>689</v>
@@ -7176,7 +7176,7 @@
         <v>689</v>
       </c>
       <c r="I162" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -7184,19 +7184,19 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C163" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D163" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E163" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F163" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G163" t="s">
         <v>689</v>
@@ -7205,7 +7205,7 @@
         <v>689</v>
       </c>
       <c r="I163" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -7213,19 +7213,19 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="C164" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D164" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E164" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F164" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G164" t="s">
         <v>689</v>
@@ -7234,7 +7234,7 @@
         <v>689</v>
       </c>
       <c r="I164" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -7242,19 +7242,19 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C165" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D165" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E165" t="s">
         <v>493</v>
       </c>
       <c r="F165" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G165" t="s">
         <v>689</v>
@@ -7263,7 +7263,7 @@
         <v>689</v>
       </c>
       <c r="I165" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -7271,19 +7271,19 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C166" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D166" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E166" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F166" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="G166" t="s">
         <v>689</v>
@@ -7292,7 +7292,7 @@
         <v>689</v>
       </c>
       <c r="I166" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -7300,19 +7300,19 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="C167" t="s">
-        <v>311</v>
+        <v>265</v>
       </c>
       <c r="D167" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E167" t="s">
         <v>494</v>
       </c>
       <c r="F167" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G167" t="s">
         <v>689</v>
@@ -7321,7 +7321,7 @@
         <v>689</v>
       </c>
       <c r="I167" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -7329,19 +7329,19 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C168" t="s">
-        <v>265</v>
+        <v>312</v>
       </c>
       <c r="D168" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E168" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F168" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="G168" t="s">
         <v>689</v>
@@ -7350,7 +7350,7 @@
         <v>689</v>
       </c>
       <c r="I168" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -7358,19 +7358,19 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C169" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D169" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E169" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F169" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="G169" t="s">
         <v>689</v>
@@ -7379,7 +7379,7 @@
         <v>689</v>
       </c>
       <c r="I169" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -7387,19 +7387,19 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="C170" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D170" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E170" t="s">
         <v>494</v>
       </c>
       <c r="F170" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="G170" t="s">
         <v>689</v>
@@ -7408,7 +7408,7 @@
         <v>689</v>
       </c>
       <c r="I170" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -7416,19 +7416,19 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="C171" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="D171" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E171" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F171" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="G171" t="s">
         <v>689</v>
@@ -7437,7 +7437,7 @@
         <v>689</v>
       </c>
       <c r="I171" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -7445,28 +7445,28 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="C172" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="D172" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E172" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F172" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G172" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="H172" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="I172" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -7474,19 +7474,19 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C173" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D173" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E173" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F173" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G173" t="s">
         <v>689</v>
@@ -7495,7 +7495,7 @@
         <v>689</v>
       </c>
       <c r="I173" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -7503,19 +7503,19 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="C174" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D174" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E174" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F174" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G174" t="s">
         <v>689</v>
@@ -7532,19 +7532,19 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="C175" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="D175" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="E175" t="s">
         <v>495</v>
       </c>
       <c r="F175" t="s">
-        <v>669</v>
+        <v>635</v>
       </c>
       <c r="G175" t="s">
         <v>689</v>
@@ -7553,7 +7553,7 @@
         <v>689</v>
       </c>
       <c r="I175" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -7561,19 +7561,19 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="C176" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="D176" t="s">
-        <v>456</v>
+        <v>491</v>
       </c>
       <c r="E176" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F176" t="s">
-        <v>635</v>
+        <v>670</v>
       </c>
       <c r="G176" t="s">
         <v>689</v>
@@ -7582,7 +7582,7 @@
         <v>689</v>
       </c>
       <c r="I176" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -7590,19 +7590,19 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="C177" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D177" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E177" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F177" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="G177" t="s">
         <v>689</v>
@@ -7611,35 +7611,6 @@
         <v>689</v>
       </c>
       <c r="I177" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="B178" t="s">
-        <v>160</v>
-      </c>
-      <c r="C178" t="s">
-        <v>319</v>
-      </c>
-      <c r="D178" t="s">
-        <v>492</v>
-      </c>
-      <c r="E178" t="s">
-        <v>495</v>
-      </c>
-      <c r="F178" t="s">
-        <v>671</v>
-      </c>
-      <c r="G178" t="s">
-        <v>689</v>
-      </c>
-      <c r="H178" t="s">
-        <v>689</v>
-      </c>
-      <c r="I178" t="s">
         <v>690</v>
       </c>
     </row>
@@ -8093,28 +8064,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D16" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E16" t="s">
         <v>493</v>
       </c>
       <c r="F16" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G16" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="H16" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="I16" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -8122,28 +8093,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>175</v>
       </c>
       <c r="D17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E17" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F17" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G17" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="H17" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="I17" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -8151,28 +8122,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D18" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E18" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F18" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G18" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="H18" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="I18" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -8180,25 +8151,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E19" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F19" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G19" t="s">
         <v>672</v>
       </c>
       <c r="H19" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I19" t="s">
         <v>691</v>
@@ -8209,28 +8180,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D20" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E20" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F20" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G20" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="H20" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="I20" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -8238,28 +8209,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D21" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E21" t="s">
         <v>493</v>
       </c>
       <c r="F21" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G21" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="H21" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="I21" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -8267,28 +8238,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D22" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E22" t="s">
         <v>493</v>
       </c>
       <c r="F22" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G22" t="s">
         <v>677</v>
       </c>
       <c r="H22" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="I22" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -8296,28 +8267,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D23" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E23" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F23" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H23" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I23" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -8325,28 +8296,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D24" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E24" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F24" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G24" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H24" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I24" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -8354,28 +8325,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D25" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E25" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F25" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G25" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="H25" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
       <c r="I25" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -8383,28 +8354,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D26" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E26" t="s">
         <v>493</v>
       </c>
       <c r="F26" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G26" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H26" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I26" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -8412,25 +8383,25 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D27" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E27" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F27" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G27" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H27" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="I27" t="s">
         <v>691</v>
@@ -8441,25 +8412,25 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D28" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E28" t="s">
         <v>495</v>
       </c>
       <c r="F28" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G28" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="H28" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="I28" t="s">
         <v>691</v>
@@ -8470,28 +8441,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D29" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E29" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F29" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G29" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="H29" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="I29" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -8499,28 +8470,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D30" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E30" t="s">
         <v>496</v>
       </c>
       <c r="F30" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G30" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="H30" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="I30" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -8528,28 +8499,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D31" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E31" t="s">
         <v>496</v>
       </c>
       <c r="F31" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G31" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="H31" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="I31" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -8557,28 +8528,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D32" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E32" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F32" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G32" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="H32" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="I32" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -8586,28 +8557,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D33" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E33" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F33" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G33" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="H33" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="I33" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -8615,25 +8586,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="D34" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="E34" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F34" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="G34" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="H34" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="I34" t="s">
         <v>692</v>
@@ -8644,28 +8615,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="D35" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="E35" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F35" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
       <c r="G35" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="H35" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="I35" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -8673,28 +8644,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D36" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E36" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F36" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G36" t="s">
         <v>676</v>
       </c>
       <c r="H36" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="I36" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -8702,28 +8673,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D37" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="E37" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F37" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G37" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H37" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="I37" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -8731,28 +8702,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="D38" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="E38" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F38" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G38" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="H38" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="I38" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -8760,28 +8731,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D39" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E39" t="s">
         <v>496</v>
       </c>
       <c r="F39" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G39" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="H39" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="I39" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -8789,28 +8760,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D40" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E40" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F40" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G40" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="H40" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="I40" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -8818,28 +8789,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D41" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E41" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F41" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G41" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H41" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="I41" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -8847,25 +8818,25 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D42" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E42" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F42" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G42" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="H42" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="I42" t="s">
         <v>692</v>
@@ -8876,25 +8847,25 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D43" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E43" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F43" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G43" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="H43" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I43" t="s">
         <v>692</v>
@@ -8905,28 +8876,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D44" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E44" t="s">
         <v>496</v>
       </c>
       <c r="F44" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G44" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="H44" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="I44" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -8934,28 +8905,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D45" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E45" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F45" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G45" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H45" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I45" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -8963,28 +8934,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D46" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E46" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F46" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G46" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H46" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="I46" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -8992,28 +8963,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D47" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E47" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F47" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G47" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H47" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="I47" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -9021,28 +8992,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D48" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E48" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F48" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G48" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="H48" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="I48" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -9050,28 +9021,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D49" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E49" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F49" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G49" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="H49" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="I49" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -9079,28 +9050,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D50" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E50" t="s">
         <v>496</v>
       </c>
       <c r="F50" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G50" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="H50" t="s">
         <v>685</v>
       </c>
       <c r="I50" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -9108,19 +9079,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D51" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E51" t="s">
         <v>496</v>
       </c>
       <c r="F51" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G51" t="s">
         <v>682</v>
@@ -9137,25 +9108,25 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D52" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E52" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F52" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G52" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="H52" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="I52" t="s">
         <v>691</v>
@@ -9166,28 +9137,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D53" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E53" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F53" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G53" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="H53" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="I53" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -9195,28 +9166,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E54" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F54" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G54" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="H54" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="I54" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -9224,28 +9195,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D55" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E55" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F55" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G55" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="H55" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="I55" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -9253,28 +9224,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D56" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E56" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F56" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G56" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H56" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="I56" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -9282,28 +9253,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D57" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E57" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F57" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G57" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="H57" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="I57" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -9311,28 +9282,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D58" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E58" t="s">
         <v>496</v>
       </c>
       <c r="F58" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G58" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="H58" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="I58" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -9340,28 +9311,28 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D59" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E59" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F59" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G59" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H59" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I59" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -9369,28 +9340,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D60" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E60" t="s">
         <v>493</v>
       </c>
       <c r="F60" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G60" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="H60" t="s">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="I60" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -9398,25 +9369,25 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="D61" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E61" t="s">
         <v>493</v>
       </c>
       <c r="F61" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G61" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="H61" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="I61" t="s">
         <v>691</v>
@@ -9427,22 +9398,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="D62" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E62" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F62" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G62" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="H62" t="s">
         <v>677</v>
@@ -9456,28 +9427,28 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D63" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E63" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="F63" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G63" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H63" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="I63" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -9485,28 +9456,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D64" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E64" t="s">
         <v>497</v>
       </c>
       <c r="F64" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G64" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="H64" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="I64" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -9514,28 +9485,28 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D65" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E65" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F65" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G65" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="H65" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="I65" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -9543,25 +9514,25 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D66" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E66" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F66" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G66" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="H66" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="I66" t="s">
         <v>692</v>
@@ -9572,28 +9543,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D67" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E67" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F67" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G67" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="H67" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="I67" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -9601,28 +9572,28 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D68" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E68" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F68" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G68" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H68" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="I68" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -9630,28 +9601,28 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D69" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E69" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F69" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G69" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="H69" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I69" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -9659,28 +9630,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D70" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E70" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F70" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G70" t="s">
-        <v>672</v>
+        <v>686</v>
       </c>
       <c r="H70" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I70" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -9688,28 +9659,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="D71" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E71" t="s">
         <v>496</v>
       </c>
       <c r="F71" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G71" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="H71" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="I71" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -9717,28 +9688,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="D72" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E72" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F72" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G72" t="s">
+        <v>678</v>
+      </c>
+      <c r="H72" t="s">
         <v>679</v>
       </c>
-      <c r="H72" t="s">
-        <v>687</v>
-      </c>
       <c r="I72" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -9746,28 +9717,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="D73" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E73" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F73" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G73" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="H73" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="I73" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -9775,28 +9746,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D74" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E74" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F74" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G74" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="H74" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="I74" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -9804,25 +9775,25 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="D75" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E75" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F75" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G75" t="s">
         <v>683</v>
       </c>
       <c r="H75" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="I75" t="s">
         <v>690</v>
@@ -9833,28 +9804,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="D76" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E76" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F76" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="G76" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H76" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="I76" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -9862,28 +9833,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D77" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E77" t="s">
         <v>496</v>
       </c>
       <c r="F77" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G77" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H77" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="I77" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -9891,28 +9862,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D78" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E78" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F78" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G78" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="H78" t="s">
         <v>683</v>
       </c>
       <c r="I78" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -9920,28 +9891,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D79" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E79" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F79" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G79" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H79" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="I79" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -9949,28 +9920,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E80" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F80" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G80" t="s">
+        <v>676</v>
+      </c>
+      <c r="H80" t="s">
         <v>684</v>
       </c>
-      <c r="H80" t="s">
-        <v>678</v>
-      </c>
       <c r="I80" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -9978,28 +9949,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D81" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E81" t="s">
         <v>496</v>
       </c>
       <c r="F81" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G81" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="H81" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I81" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -10010,25 +9981,25 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E82" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F82" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G82" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H82" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="I82" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -10036,25 +10007,25 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D83" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E83" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F83" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G83" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H83" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="I83" t="s">
         <v>691</v>
@@ -10065,28 +10036,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D84" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E84" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F84" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G84" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="H84" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="I84" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -10094,28 +10065,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D85" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E85" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F85" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G85" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H85" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="I85" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -10123,25 +10094,25 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D86" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E86" t="s">
         <v>495</v>
       </c>
       <c r="F86" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G86" t="s">
         <v>681</v>
       </c>
       <c r="H86" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="I86" t="s">
         <v>690</v>
@@ -10152,28 +10123,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D87" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E87" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F87" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G87" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="H87" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="I87" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -10181,28 +10152,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D88" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E88" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F88" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="G88" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="H88" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="I88" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -10210,28 +10181,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C89" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D89" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E89" t="s">
         <v>496</v>
       </c>
       <c r="F89" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G89" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="H89" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="I89" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -10239,28 +10210,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C90" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D90" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E90" t="s">
         <v>496</v>
       </c>
       <c r="F90" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G90" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H90" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="I90" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -10268,25 +10239,25 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C91" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D91" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E91" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F91" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G91" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="H91" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="I91" t="s">
         <v>692</v>
@@ -10297,28 +10268,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C92" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D92" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E92" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F92" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G92" t="s">
+        <v>680</v>
+      </c>
+      <c r="H92" t="s">
         <v>674</v>
       </c>
-      <c r="H92" t="s">
-        <v>683</v>
-      </c>
       <c r="I92" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -10326,28 +10297,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C93" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D93" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E93" t="s">
         <v>493</v>
       </c>
       <c r="F93" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G93" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H93" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="I93" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -10355,33 +10326,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D94" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E94" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F94" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G94" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H94" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="I94" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
         <v>94</v>
@@ -10410,7 +10381,7 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>96</v>
@@ -10428,10 +10399,10 @@
         <v>592</v>
       </c>
       <c r="G96" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="H96" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="I96" t="s">
         <v>691</v>
@@ -10439,7 +10410,7 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>97</v>
@@ -10468,7 +10439,7 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>98</v>
@@ -10486,10 +10457,10 @@
         <v>594</v>
       </c>
       <c r="G98" t="s">
+        <v>688</v>
+      </c>
+      <c r="H98" t="s">
         <v>684</v>
-      </c>
-      <c r="H98" t="s">
-        <v>681</v>
       </c>
       <c r="I98" t="s">
         <v>691</v>
@@ -10500,28 +10471,28 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D99" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E99" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F99" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G99" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="H99" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="I99" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -10529,28 +10500,28 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D100" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E100" t="s">
         <v>495</v>
       </c>
       <c r="F100" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="G100" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="H100" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I100" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -10558,28 +10529,28 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D101" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E101" t="s">
         <v>495</v>
       </c>
       <c r="F101" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G101" t="s">
         <v>680</v>
       </c>
       <c r="H101" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="I101" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -10587,25 +10558,25 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D102" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E102" t="s">
         <v>495</v>
       </c>
       <c r="F102" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G102" t="s">
+        <v>687</v>
+      </c>
+      <c r="H102" t="s">
         <v>680</v>
-      </c>
-      <c r="H102" t="s">
-        <v>681</v>
       </c>
       <c r="I102" t="s">
         <v>692</v>
@@ -10616,28 +10587,28 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D103" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E103" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F103" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G103" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H103" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="I103" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -10645,28 +10616,28 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D104" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E104" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F104" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="G104" t="s">
+        <v>685</v>
+      </c>
+      <c r="H104" t="s">
         <v>688</v>
       </c>
-      <c r="H104" t="s">
-        <v>673</v>
-      </c>
       <c r="I104" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -10674,28 +10645,28 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D105" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E105" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F105" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G105" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="H105" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="I105" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -10703,25 +10674,25 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D106" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E106" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F106" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G106" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="H106" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
       <c r="I106" t="s">
         <v>691</v>
@@ -10732,25 +10703,25 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D107" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E107" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F107" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G107" t="s">
+        <v>688</v>
+      </c>
+      <c r="H107" t="s">
         <v>684</v>
-      </c>
-      <c r="H107" t="s">
-        <v>687</v>
       </c>
       <c r="I107" t="s">
         <v>691</v>
@@ -10761,22 +10732,22 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D108" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E108" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F108" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="G108" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="H108" t="s">
         <v>684</v>
@@ -10787,28 +10758,28 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="1">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D109" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="E109" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F109" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="G109" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="H109" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="I109" t="s">
         <v>691</v>
@@ -10816,28 +10787,28 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="1">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C110" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D110" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="E110" t="s">
         <v>493</v>
       </c>
       <c r="F110" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="G110" t="s">
         <v>688</v>
       </c>
       <c r="H110" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="I110" t="s">
         <v>691</v>
@@ -10845,28 +10816,28 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="1">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C111" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D111" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="E111" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F111" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="G111" t="s">
         <v>685</v>
       </c>
       <c r="H111" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="I111" t="s">
         <v>691</v>
@@ -10874,86 +10845,86 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="1">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C112" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D112" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E112" t="s">
         <v>493</v>
       </c>
       <c r="F112" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="G112" t="s">
         <v>687</v>
       </c>
       <c r="H112" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="I112" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="1">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C113" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D113" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="E113" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F113" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="G113" t="s">
         <v>687</v>
       </c>
       <c r="H113" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="I113" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="1">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B114" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C114" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D114" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="E114" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F114" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="G114" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="H114" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I114" t="s">
         <v>691</v>
@@ -10961,28 +10932,28 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="1">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C115" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="D115" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E115" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F115" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="G115" t="s">
         <v>686</v>
       </c>
       <c r="H115" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="I115" t="s">
         <v>691</v>
@@ -10990,57 +10961,57 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="1">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="C116" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="D116" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="E116" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F116" t="s">
-        <v>612</v>
+        <v>638</v>
       </c>
       <c r="G116" t="s">
         <v>686</v>
       </c>
       <c r="H116" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="I116" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="1">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C117" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="D117" t="s">
-        <v>434</v>
+        <v>461</v>
       </c>
       <c r="E117" t="s">
         <v>493</v>
       </c>
       <c r="F117" t="s">
-        <v>613</v>
+        <v>640</v>
       </c>
       <c r="G117" t="s">
         <v>686</v>
       </c>
       <c r="H117" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I117" t="s">
         <v>691</v>
@@ -11048,28 +11019,28 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="1">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="B118" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="C118" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="D118" t="s">
-        <v>436</v>
+        <v>472</v>
       </c>
       <c r="E118" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F118" t="s">
-        <v>615</v>
+        <v>651</v>
       </c>
       <c r="G118" t="s">
         <v>686</v>
       </c>
       <c r="H118" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="I118" t="s">
         <v>691</v>
@@ -11077,28 +11048,28 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="1">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="B119" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="C119" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="D119" t="s">
-        <v>438</v>
+        <v>476</v>
       </c>
       <c r="E119" t="s">
         <v>494</v>
       </c>
       <c r="F119" t="s">
-        <v>617</v>
+        <v>655</v>
       </c>
       <c r="G119" t="s">
+        <v>673</v>
+      </c>
+      <c r="H119" t="s">
         <v>686</v>
-      </c>
-      <c r="H119" t="s">
-        <v>683</v>
       </c>
       <c r="I119" t="s">
         <v>691</v>
@@ -11106,28 +11077,28 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="1">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="B120" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C120" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="D120" t="s">
-        <v>441</v>
+        <v>488</v>
       </c>
       <c r="E120" t="s">
         <v>494</v>
       </c>
       <c r="F120" t="s">
-        <v>620</v>
+        <v>667</v>
       </c>
       <c r="G120" t="s">
         <v>673</v>
       </c>
       <c r="H120" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="I120" t="s">
         <v>691</v>

--- a/Results_2018.xlsx
+++ b/Results_2018.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="All Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Successful Assignments" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -5201,7 +5201,7 @@
         <v>681</v>
       </c>
       <c r="H94" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="I94" t="s">
         <v>695</v>
@@ -5343,10 +5343,10 @@
         <v>594</v>
       </c>
       <c r="G99" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="H99" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="I99" t="s">
         <v>691</v>
@@ -5372,10 +5372,10 @@
         <v>595</v>
       </c>
       <c r="G100" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H100" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="I100" t="s">
         <v>701</v>
@@ -5433,7 +5433,7 @@
         <v>680</v>
       </c>
       <c r="H102" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="I102" t="s">
         <v>690</v>
@@ -5462,7 +5462,7 @@
         <v>680</v>
       </c>
       <c r="H103" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="I103" t="s">
         <v>692</v>
@@ -5578,7 +5578,7 @@
         <v>688</v>
       </c>
       <c r="H107" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="I107" t="s">
         <v>691</v>
@@ -5604,10 +5604,10 @@
         <v>603</v>
       </c>
       <c r="G108" t="s">
+        <v>687</v>
+      </c>
+      <c r="H108" t="s">
         <v>684</v>
-      </c>
-      <c r="H108" t="s">
-        <v>687</v>
       </c>
       <c r="I108" t="s">
         <v>691</v>
@@ -5691,10 +5691,10 @@
         <v>606</v>
       </c>
       <c r="G111" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H111" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="I111" t="s">
         <v>691</v>
@@ -5720,10 +5720,10 @@
         <v>607</v>
       </c>
       <c r="G112" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H112" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="I112" t="s">
         <v>691</v>
@@ -5749,10 +5749,10 @@
         <v>608</v>
       </c>
       <c r="G113" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="H113" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="I113" t="s">
         <v>691</v>
@@ -5778,10 +5778,10 @@
         <v>609</v>
       </c>
       <c r="G114" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H114" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="I114" t="s">
         <v>690</v>
@@ -5807,10 +5807,10 @@
         <v>610</v>
       </c>
       <c r="G115" t="s">
+        <v>673</v>
+      </c>
+      <c r="H115" t="s">
         <v>688</v>
-      </c>
-      <c r="H115" t="s">
-        <v>673</v>
       </c>
       <c r="I115" t="s">
         <v>691</v>
@@ -5836,10 +5836,10 @@
         <v>611</v>
       </c>
       <c r="G116" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H116" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="I116" t="s">
         <v>691</v>
@@ -5865,10 +5865,10 @@
         <v>612</v>
       </c>
       <c r="G117" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H117" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="I117" t="s">
         <v>690</v>
@@ -5894,10 +5894,10 @@
         <v>613</v>
       </c>
       <c r="G118" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="H118" t="s">
-        <v>689</v>
+        <v>674</v>
       </c>
       <c r="I118" t="s">
         <v>691</v>
@@ -5923,10 +5923,10 @@
         <v>614</v>
       </c>
       <c r="G119" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="H119" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="I119" t="s">
         <v>692</v>
@@ -5955,7 +5955,7 @@
         <v>686</v>
       </c>
       <c r="H120" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="I120" t="s">
         <v>691</v>
@@ -6010,10 +6010,10 @@
         <v>617</v>
       </c>
       <c r="G122" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="H122" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="I122" t="s">
         <v>691</v>
@@ -6097,10 +6097,10 @@
         <v>620</v>
       </c>
       <c r="G125" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="H125" t="s">
-        <v>689</v>
+        <v>674</v>
       </c>
       <c r="I125" t="s">
         <v>691</v>
@@ -6300,10 +6300,10 @@
         <v>627</v>
       </c>
       <c r="G132" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="H132" t="s">
-        <v>673</v>
+        <v>689</v>
       </c>
       <c r="I132" t="s">
         <v>691</v>
@@ -6619,10 +6619,10 @@
         <v>638</v>
       </c>
       <c r="G143" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="H143" t="s">
-        <v>673</v>
+        <v>689</v>
       </c>
       <c r="I143" t="s">
         <v>691</v>
@@ -6677,10 +6677,10 @@
         <v>640</v>
       </c>
       <c r="G145" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="H145" t="s">
-        <v>673</v>
+        <v>689</v>
       </c>
       <c r="I145" t="s">
         <v>691</v>
@@ -6996,10 +6996,10 @@
         <v>651</v>
       </c>
       <c r="G156" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="H156" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="I156" t="s">
         <v>691</v>
@@ -7112,10 +7112,10 @@
         <v>655</v>
       </c>
       <c r="G160" t="s">
-        <v>673</v>
+        <v>689</v>
       </c>
       <c r="H160" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="I160" t="s">
         <v>691</v>
@@ -7460,10 +7460,10 @@
         <v>667</v>
       </c>
       <c r="G172" t="s">
-        <v>673</v>
+        <v>689</v>
       </c>
       <c r="H172" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="I172" t="s">
         <v>691</v>
@@ -10344,7 +10344,7 @@
         <v>681</v>
       </c>
       <c r="H94" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="I94" t="s">
         <v>695</v>
@@ -10457,10 +10457,10 @@
         <v>594</v>
       </c>
       <c r="G98" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="H98" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="I98" t="s">
         <v>691</v>
@@ -10468,115 +10468,115 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
         <v>99</v>
       </c>
-      <c r="B99" t="s">
-        <v>100</v>
-      </c>
       <c r="C99" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D99" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E99" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F99" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G99" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="H99" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="I99" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
         <v>100</v>
       </c>
-      <c r="B100" t="s">
-        <v>101</v>
-      </c>
       <c r="C100" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D100" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E100" t="s">
         <v>495</v>
       </c>
       <c r="F100" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G100" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="H100" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="I100" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
         <v>101</v>
       </c>
-      <c r="B101" t="s">
-        <v>102</v>
-      </c>
       <c r="C101" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D101" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E101" t="s">
         <v>495</v>
       </c>
       <c r="F101" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G101" t="s">
         <v>680</v>
       </c>
       <c r="H101" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="I101" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
         <v>102</v>
       </c>
-      <c r="B102" t="s">
-        <v>103</v>
-      </c>
       <c r="C102" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D102" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E102" t="s">
         <v>495</v>
       </c>
       <c r="F102" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G102" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="H102" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="I102" t="s">
         <v>692</v>
@@ -10584,115 +10584,115 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
         <v>103</v>
       </c>
-      <c r="B103" t="s">
-        <v>104</v>
-      </c>
       <c r="C103" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D103" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E103" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F103" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G103" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H103" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="I103" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
         <v>104</v>
       </c>
-      <c r="B104" t="s">
-        <v>105</v>
-      </c>
       <c r="C104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D104" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E104" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F104" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G104" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="H104" t="s">
-        <v>688</v>
+        <v>673</v>
       </c>
       <c r="I104" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
         <v>105</v>
       </c>
-      <c r="B105" t="s">
-        <v>106</v>
-      </c>
       <c r="C105" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D105" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E105" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F105" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G105" t="s">
+        <v>685</v>
+      </c>
+      <c r="H105" t="s">
         <v>688</v>
       </c>
-      <c r="H105" t="s">
-        <v>684</v>
-      </c>
       <c r="I105" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
         <v>106</v>
       </c>
-      <c r="B106" t="s">
-        <v>107</v>
-      </c>
       <c r="C106" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D106" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E106" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F106" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G106" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="H106" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="I106" t="s">
         <v>691</v>
@@ -10700,25 +10700,25 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
         <v>107</v>
       </c>
-      <c r="B107" t="s">
-        <v>108</v>
-      </c>
       <c r="C107" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D107" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E107" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F107" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G107" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H107" t="s">
         <v>684</v>
@@ -10729,25 +10729,25 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
         <v>108</v>
       </c>
-      <c r="B108" t="s">
-        <v>109</v>
-      </c>
       <c r="C108" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D108" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E108" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F108" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G108" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="H108" t="s">
         <v>684</v>
@@ -10758,28 +10758,28 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="1">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C109" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D109" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E109" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F109" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G109" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="H109" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="I109" t="s">
         <v>691</v>
@@ -10787,28 +10787,28 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="1">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D110" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E110" t="s">
         <v>493</v>
       </c>
       <c r="F110" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G110" t="s">
         <v>688</v>
       </c>
       <c r="H110" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="I110" t="s">
         <v>691</v>
@@ -10816,28 +10816,28 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="1">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C111" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D111" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E111" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F111" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="G111" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="H111" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="I111" t="s">
         <v>691</v>
@@ -10845,86 +10845,86 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="1">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C112" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D112" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E112" t="s">
         <v>493</v>
       </c>
       <c r="F112" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G112" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H112" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="I112" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="1">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C113" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D113" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="E113" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F113" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G113" t="s">
         <v>687</v>
       </c>
       <c r="H113" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="I113" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="1">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D114" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E114" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F114" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="G114" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="H114" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I114" t="s">
         <v>691</v>
@@ -10932,28 +10932,28 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="1">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="D115" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="E115" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F115" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="G115" t="s">
         <v>686</v>
       </c>
       <c r="H115" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="I115" t="s">
         <v>691</v>
@@ -10961,57 +10961,57 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="1">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="D116" t="s">
-        <v>459</v>
+        <v>433</v>
       </c>
       <c r="E116" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F116" t="s">
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="G116" t="s">
         <v>686</v>
       </c>
       <c r="H116" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="I116" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="1">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="C117" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="D117" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
       <c r="E117" t="s">
         <v>493</v>
       </c>
       <c r="F117" t="s">
-        <v>640</v>
+        <v>613</v>
       </c>
       <c r="G117" t="s">
         <v>686</v>
       </c>
       <c r="H117" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="I117" t="s">
         <v>691</v>
@@ -11019,28 +11019,28 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="1">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="D118" t="s">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="E118" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F118" t="s">
-        <v>651</v>
+        <v>615</v>
       </c>
       <c r="G118" t="s">
         <v>686</v>
       </c>
       <c r="H118" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="I118" t="s">
         <v>691</v>
@@ -11048,28 +11048,28 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="1">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="C119" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="D119" t="s">
-        <v>476</v>
+        <v>438</v>
       </c>
       <c r="E119" t="s">
         <v>494</v>
       </c>
       <c r="F119" t="s">
-        <v>655</v>
+        <v>617</v>
       </c>
       <c r="G119" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="H119" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="I119" t="s">
         <v>691</v>
@@ -11077,28 +11077,28 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="1">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="D120" t="s">
-        <v>488</v>
+        <v>441</v>
       </c>
       <c r="E120" t="s">
         <v>494</v>
       </c>
       <c r="F120" t="s">
-        <v>667</v>
+        <v>620</v>
       </c>
       <c r="G120" t="s">
         <v>673</v>
       </c>
       <c r="H120" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="I120" t="s">
         <v>691</v>
